--- a/بوفيه_مستشفى.xlsx
+++ b/بوفيه_مستشفى.xlsx
@@ -38,6 +38,9 @@
     <t xml:space="preserve">المبلغ</t>
   </si>
   <si>
+    <t xml:space="preserve">التوقيع</t>
+  </si>
+  <si>
     <t xml:space="preserve">احمد الدسوقى الحسينى الدسوقى على</t>
   </si>
   <si>
@@ -242,6 +245,606 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
     </font>
   </fonts>
   <fills>
@@ -251,6 +854,156 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
   </fills>
   <borders>
     <border>
@@ -258,6 +1011,1056 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -266,6 +2069,456 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="4" fillId="5" borderId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="56" fillId="57" borderId="56" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="62" fillId="63" borderId="62" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="63" fillId="64" borderId="63" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="68" fillId="69" borderId="68" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="69" fillId="70" borderId="69" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="70" fillId="71" borderId="70" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="74" fillId="75" borderId="74" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="75" fillId="76" borderId="75" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="76" fillId="77" borderId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="80" fillId="81" borderId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="81" fillId="82" borderId="81" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="82" fillId="83" borderId="82" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="86" fillId="87" borderId="86" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="87" fillId="88" borderId="87" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="88" fillId="89" borderId="88" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="92" fillId="93" borderId="92" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="93" fillId="94" borderId="93" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="94" fillId="95" borderId="94" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="98" fillId="99" borderId="98" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="99" fillId="100" borderId="99" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="100" fillId="101" borderId="100" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="104" fillId="105" borderId="104" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="105" fillId="106" borderId="105" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="106" fillId="107" borderId="106" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="110" fillId="111" borderId="110" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="111" fillId="112" borderId="111" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="112" fillId="113" borderId="112" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="116" fillId="117" borderId="116" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="117" fillId="118" borderId="117" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="118" fillId="119" borderId="118" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="122" fillId="123" borderId="122" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="123" fillId="124" borderId="123" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="124" fillId="125" borderId="124" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="128" fillId="129" borderId="128" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="129" fillId="130" borderId="129" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="130" fillId="131" borderId="130" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="134" fillId="135" borderId="134" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="135" fillId="136" borderId="135" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="136" fillId="137" borderId="136" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="140" fillId="141" borderId="140" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="141" fillId="142" borderId="141" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="142" fillId="143" borderId="142" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="146" fillId="147" borderId="146" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="147" fillId="148" borderId="147" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="148" fillId="149" borderId="148" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,448 +2809,482 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="4">
         <v>3</v>
+      </c>
+      <c r="E1" t="s" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="C2" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9">
         <v>331.37</v>
       </c>
+      <c r="E2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>331.37</v>
       </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="s" s="17">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19">
         <v>331.37</v>
       </c>
+      <c r="E4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s" s="21">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="s" s="22">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="23">
+        <v>7</v>
+      </c>
+      <c r="D5" s="24">
         <v>331.37</v>
       </c>
+      <c r="E5" s="25"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" t="s" s="26">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="s" s="27">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="28">
+        <v>7</v>
+      </c>
+      <c r="D6" s="29">
         <v>331.37</v>
       </c>
+      <c r="E6" s="30"/>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="33">
+        <v>7</v>
+      </c>
+      <c r="D7" s="34">
         <v>331.37</v>
       </c>
+      <c r="E7" s="35"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" t="s" s="36">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="37">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="C8" t="s" s="38">
+        <v>20</v>
+      </c>
+      <c r="D8" s="39">
         <v>328.39</v>
       </c>
+      <c r="E8" s="40"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" t="s" s="41">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="s" s="42">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s" s="43">
+        <v>7</v>
+      </c>
+      <c r="D9" s="44">
         <v>331.37</v>
       </c>
+      <c r="E9" s="45"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" t="s" s="46">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="s" s="47">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s" s="48">
+        <v>7</v>
+      </c>
+      <c r="D10" s="49">
         <v>582.95</v>
       </c>
+      <c r="E10" s="50"/>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" t="s" s="51">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
+      <c r="B11" t="s" s="52">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s" s="53">
+        <v>7</v>
+      </c>
+      <c r="D11" s="54">
         <v>331.37</v>
       </c>
+      <c r="E11" s="55"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" t="s" s="56">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="B12" t="s" s="57">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s" s="58">
+        <v>7</v>
+      </c>
+      <c r="D12" s="59">
         <v>331.37</v>
       </c>
+      <c r="E12" s="60"/>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" t="s" s="61">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="s" s="62">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s" s="63">
+        <v>7</v>
+      </c>
+      <c r="D13" s="64">
         <v>331.37</v>
       </c>
+      <c r="E13" s="65"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" t="s" s="66">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
+      <c r="B14" t="s" s="67">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s" s="68">
+        <v>7</v>
+      </c>
+      <c r="D14" s="69">
         <v>331.37</v>
       </c>
+      <c r="E14" s="70"/>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" t="s" s="71">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
+      <c r="B15" t="s" s="72">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="73">
+        <v>7</v>
+      </c>
+      <c r="D15" s="74">
         <v>331.37</v>
       </c>
+      <c r="E15" s="75"/>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" t="s" s="76">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
+      <c r="B16" t="s" s="77">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="78">
+        <v>7</v>
+      </c>
+      <c r="D16" s="79">
         <v>331.37</v>
       </c>
+      <c r="E16" s="80"/>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" t="s" s="81">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
+      <c r="B17" t="s" s="82">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s" s="83">
+        <v>7</v>
+      </c>
+      <c r="D17" s="84">
         <v>331.37</v>
       </c>
+      <c r="E17" s="85"/>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" t="s" s="86">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
+      <c r="B18" t="s" s="87">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s" s="88">
+        <v>7</v>
+      </c>
+      <c r="D18" s="89">
         <v>331.37</v>
       </c>
+      <c r="E18" s="90"/>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="A19" t="s" s="91">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="s" s="92">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s" s="93">
+        <v>20</v>
+      </c>
+      <c r="D19" s="94">
         <v>331.37</v>
       </c>
+      <c r="E19" s="95"/>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" t="s" s="96">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
+      <c r="B20" t="s" s="97">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s" s="98">
+        <v>7</v>
+      </c>
+      <c r="D20" s="99">
         <v>331.37</v>
       </c>
+      <c r="E20" s="100"/>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" t="s" s="101">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
+      <c r="B21" t="s" s="102">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s" s="103">
+        <v>7</v>
+      </c>
+      <c r="D21" s="104">
         <v>331.37</v>
       </c>
+      <c r="E21" s="105"/>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" t="s" s="106">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
+      <c r="B22" t="s" s="107">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s" s="108">
+        <v>7</v>
+      </c>
+      <c r="D22" s="109">
         <v>331.86</v>
       </c>
+      <c r="E22" s="110"/>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" t="s" s="111">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
+      <c r="B23" t="s" s="112">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s" s="113">
+        <v>7</v>
+      </c>
+      <c r="D23" s="114">
         <v>331.37</v>
       </c>
+      <c r="E23" s="115"/>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="A24" t="s" s="116">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
+      <c r="B24" t="s" s="117">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s" s="118">
+        <v>20</v>
+      </c>
+      <c r="D24" s="119">
         <v>331.37</v>
       </c>
+      <c r="E24" s="120"/>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" t="s" s="121">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
+      <c r="B25" t="s" s="122">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s" s="123">
+        <v>7</v>
+      </c>
+      <c r="D25" s="124">
         <v>331.37</v>
       </c>
+      <c r="E25" s="125"/>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" t="s" s="126">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26">
+      <c r="B26" t="s" s="127">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s" s="128">
+        <v>20</v>
+      </c>
+      <c r="D26" s="129">
         <v>331.37</v>
       </c>
+      <c r="E26" s="130"/>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" t="s" s="131">
         <v>57</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
+      <c r="B27" t="s" s="132">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s" s="133">
+        <v>7</v>
+      </c>
+      <c r="D27" s="134">
         <v>331.37</v>
       </c>
+      <c r="E27" s="135"/>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="A28" t="s" s="136">
         <v>59</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28">
+      <c r="B28" t="s" s="137">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s" s="138">
+        <v>7</v>
+      </c>
+      <c r="D28" s="139">
         <v>331.37</v>
       </c>
+      <c r="E28" s="140"/>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" t="s" s="141">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29">
+      <c r="B29" t="s" s="142">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s" s="143">
+        <v>7</v>
+      </c>
+      <c r="D29" s="144">
         <v>328.39</v>
       </c>
+      <c r="E29" s="145"/>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" t="s" s="146">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
+      <c r="B30" t="s" s="147">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s" s="148">
+        <v>7</v>
+      </c>
+      <c r="D30" s="149">
         <v>331.37</v>
       </c>
+      <c r="E30" s="150"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>331.37</v>
       </c>
+      <c r="E31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/بوفيه_مستشفى.xlsx
+++ b/بوفيه_مستشفى.xlsx
@@ -50,6 +50,12 @@
     <t xml:space="preserve">بوفيه</t>
   </si>
   <si>
+    <t xml:space="preserve">٣٣١٫٣٧</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">احمد السيد اسماعيل عباس</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t xml:space="preserve">مستشفى</t>
   </si>
   <si>
+    <t xml:space="preserve">٣٢٨٫٣٩</t>
+  </si>
+  <si>
     <t xml:space="preserve">جمال عبد الحكيم حسن عبد الوهاب</t>
   </si>
   <si>
@@ -101,6 +110,9 @@
     <t xml:space="preserve">30208192501673</t>
   </si>
   <si>
+    <t xml:space="preserve">٥٨٢٫٩٥</t>
+  </si>
+  <si>
     <t xml:space="preserve">خالد نادى عبد الحميد جاب الله</t>
   </si>
   <si>
@@ -173,6 +185,9 @@
     <t xml:space="preserve">29905052403091</t>
   </si>
   <si>
+    <t xml:space="preserve">٣٣١٫٨٦</t>
+  </si>
+  <si>
     <t xml:space="preserve">محمد سعد طه عبد الحميد</t>
   </si>
   <si>
@@ -230,7 +245,7 @@
     <t xml:space="preserve">الاجمالى</t>
   </si>
   <si>
-    <t xml:space="preserve">10187.21</t>
+    <t xml:space="preserve">١٠٬١٨٧٫٢١</t>
   </si>
 </sst>
 </file>
@@ -247,603 +262,643 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="20"/>
       <b/>
     </font>
   </fonts>
@@ -854,156 +909,206 @@
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
-    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="D9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
     <border>
@@ -1011,6 +1116,76 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -2084,439 +2259,469 @@
     <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="56" fillId="57" borderId="56" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="62" fillId="63" borderId="62" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="63" fillId="64" borderId="63" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="68" fillId="69" borderId="68" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="69" fillId="70" borderId="69" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="70" fillId="71" borderId="70" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="74" fillId="75" borderId="74" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="75" fillId="76" borderId="75" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="76" fillId="77" borderId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="80" fillId="81" borderId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="81" fillId="82" borderId="81" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="82" fillId="83" borderId="82" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="86" fillId="87" borderId="86" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="87" fillId="88" borderId="87" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="88" fillId="89" borderId="88" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="92" fillId="93" borderId="92" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="93" fillId="94" borderId="93" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="94" fillId="95" borderId="94" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="98" fillId="99" borderId="98" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="99" fillId="100" borderId="99" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="100" fillId="101" borderId="100" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="104" fillId="105" borderId="104" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="105" fillId="106" borderId="105" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="106" fillId="107" borderId="106" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="110" fillId="111" borderId="110" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="111" fillId="112" borderId="111" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="112" fillId="113" borderId="112" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="116" fillId="117" borderId="116" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="117" fillId="118" borderId="117" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="118" fillId="119" borderId="118" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="122" fillId="123" borderId="122" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="123" fillId="124" borderId="123" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="124" fillId="125" borderId="124" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="128" fillId="129" borderId="128" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="129" fillId="130" borderId="129" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="130" fillId="131" borderId="130" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="134" fillId="135" borderId="134" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="135" fillId="136" borderId="135" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="136" fillId="137" borderId="136" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="140" fillId="141" borderId="140" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="141" fillId="142" borderId="141" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="142" fillId="143" borderId="142" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="146" fillId="147" borderId="146" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="147" fillId="148" borderId="147" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="148" fillId="149" borderId="148" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="8" fillId="9" borderId="8" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="9" fillId="10" borderId="9" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="10" fillId="11" borderId="10" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="14" fillId="15" borderId="14" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="15" fillId="16" borderId="15" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="16" fillId="17" borderId="16" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="20" fillId="21" borderId="20" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="21" fillId="22" borderId="21" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="22" fillId="23" borderId="22" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="26" fillId="27" borderId="26" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="27" fillId="28" borderId="27" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="28" fillId="29" borderId="28" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="32" fillId="33" borderId="32" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="33" fillId="34" borderId="33" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="34" fillId="35" borderId="34" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="38" fillId="39" borderId="38" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="39" fillId="40" borderId="39" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="40" fillId="41" borderId="40" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="44" fillId="45" borderId="44" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="45" fillId="46" borderId="45" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="46" fillId="47" borderId="46" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="50" fillId="51" borderId="50" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="51" fillId="52" borderId="51" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="52" fillId="53" borderId="52" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="56" fillId="57" borderId="56" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="57" fillId="58" borderId="57" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="58" fillId="59" borderId="58" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="62" fillId="63" borderId="62" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="63" fillId="64" borderId="63" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="64" fillId="65" borderId="64" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="68" fillId="69" borderId="68" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="69" fillId="70" borderId="69" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="70" fillId="71" borderId="70" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="74" fillId="75" borderId="74" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="75" fillId="76" borderId="75" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="76" fillId="77" borderId="76" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="80" fillId="81" borderId="80" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="81" fillId="82" borderId="81" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="82" fillId="83" borderId="82" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="86" fillId="87" borderId="86" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="87" fillId="88" borderId="87" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="88" fillId="89" borderId="88" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="92" fillId="93" borderId="92" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="93" fillId="94" borderId="93" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="94" fillId="95" borderId="94" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="98" fillId="99" borderId="98" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="99" fillId="100" borderId="99" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="100" fillId="101" borderId="100" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="104" fillId="105" borderId="104" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="105" fillId="106" borderId="105" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="106" fillId="107" borderId="106" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="110" fillId="111" borderId="110" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="111" fillId="112" borderId="111" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="112" fillId="113" borderId="112" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="116" fillId="117" borderId="116" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="117" fillId="118" borderId="117" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="118" fillId="119" borderId="118" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="122" fillId="123" borderId="122" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="123" fillId="124" borderId="123" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="124" fillId="125" borderId="124" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="128" fillId="129" borderId="128" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="129" fillId="130" borderId="129" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="130" fillId="131" borderId="130" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="134" fillId="135" borderId="134" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="135" fillId="136" borderId="135" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="136" fillId="137" borderId="136" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="140" fillId="141" borderId="140" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="141" fillId="142" borderId="141" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="142" fillId="143" borderId="142" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="146" fillId="147" borderId="146" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="147" fillId="148" borderId="147" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="148" fillId="149" borderId="148" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="152" fillId="153" borderId="152" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="153" fillId="154" borderId="153" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="154" fillId="155" borderId="154" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="158" fillId="159" borderId="158" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="159" fillId="160" borderId="159" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="160" fillId="161" borderId="160" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2801,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2809,7 +3014,7 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2839,452 +3044,521 @@
       <c r="C2" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="D2" s="9">
-        <v>331.37</v>
-      </c>
-      <c r="E2" s="10"/>
+      <c r="D2" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="D3" s="14">
-        <v>331.37</v>
-      </c>
-      <c r="E3" s="15"/>
+      <c r="D3" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="15">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="D4" s="19">
-        <v>331.37</v>
-      </c>
-      <c r="E4" s="20"/>
+      <c r="D4" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="23">
         <v>7</v>
       </c>
-      <c r="D5" s="24">
-        <v>331.37</v>
-      </c>
-      <c r="E5" s="25"/>
+      <c r="D5" t="s" s="24">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="25">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="27">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="28">
         <v>7</v>
       </c>
-      <c r="D6" s="29">
-        <v>331.37</v>
-      </c>
-      <c r="E6" s="30"/>
+      <c r="D6" t="s" s="29">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="30">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="D7" s="34">
-        <v>331.37</v>
-      </c>
-      <c r="E7" s="35"/>
+      <c r="D7" t="s" s="34">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="35">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s" s="37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="38">
-        <v>20</v>
-      </c>
-      <c r="D8" s="39">
-        <v>328.39</v>
-      </c>
-      <c r="E8" s="40"/>
+        <v>22</v>
+      </c>
+      <c r="D8" t="s" s="39">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="40">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="41">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s" s="42">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="43">
         <v>7</v>
       </c>
-      <c r="D9" s="44">
-        <v>331.37</v>
-      </c>
-      <c r="E9" s="45"/>
+      <c r="D9" t="s" s="44">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="45">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="46">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s" s="47">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="48">
         <v>7</v>
       </c>
-      <c r="D10" s="49">
-        <v>582.95</v>
-      </c>
-      <c r="E10" s="50"/>
+      <c r="D10" t="s" s="49">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s" s="50">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="51">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s" s="52">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s" s="53">
         <v>7</v>
       </c>
-      <c r="D11" s="54">
-        <v>331.37</v>
-      </c>
-      <c r="E11" s="55"/>
+      <c r="D11" t="s" s="54">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="55">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="56">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s" s="57">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s" s="58">
         <v>7</v>
       </c>
-      <c r="D12" s="59">
-        <v>331.37</v>
-      </c>
-      <c r="E12" s="60"/>
+      <c r="D12" t="s" s="59">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="60">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="61">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s" s="62">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s" s="63">
         <v>7</v>
       </c>
-      <c r="D13" s="64">
-        <v>331.37</v>
-      </c>
-      <c r="E13" s="65"/>
+      <c r="D13" t="s" s="64">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="65">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="66">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s" s="67">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s" s="68">
         <v>7</v>
       </c>
-      <c r="D14" s="69">
-        <v>331.37</v>
-      </c>
-      <c r="E14" s="70"/>
+      <c r="D14" t="s" s="69">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s" s="70">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="71">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="72">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s" s="73">
         <v>7</v>
       </c>
-      <c r="D15" s="74">
-        <v>331.37</v>
-      </c>
-      <c r="E15" s="75"/>
+      <c r="D15" t="s" s="74">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s" s="75">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="76">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="77">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="78">
         <v>7</v>
       </c>
-      <c r="D16" s="79">
-        <v>331.37</v>
-      </c>
-      <c r="E16" s="80"/>
+      <c r="D16" t="s" s="79">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s" s="80">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="81">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s" s="82">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s" s="83">
         <v>7</v>
       </c>
-      <c r="D17" s="84">
-        <v>331.37</v>
-      </c>
-      <c r="E17" s="85"/>
+      <c r="D17" t="s" s="84">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s" s="85">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="86">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s" s="87">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s" s="88">
         <v>7</v>
       </c>
-      <c r="D18" s="89">
-        <v>331.37</v>
-      </c>
-      <c r="E18" s="90"/>
+      <c r="D18" t="s" s="89">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s" s="90">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="91">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s" s="92">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s" s="93">
-        <v>20</v>
-      </c>
-      <c r="D19" s="94">
-        <v>331.37</v>
-      </c>
-      <c r="E19" s="95"/>
+        <v>22</v>
+      </c>
+      <c r="D19" t="s" s="94">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s" s="95">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="96">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s" s="97">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s" s="98">
         <v>7</v>
       </c>
-      <c r="D20" s="99">
-        <v>331.37</v>
-      </c>
-      <c r="E20" s="100"/>
+      <c r="D20" t="s" s="99">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="100">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="101">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s" s="102">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s" s="103">
         <v>7</v>
       </c>
-      <c r="D21" s="104">
-        <v>331.37</v>
-      </c>
-      <c r="E21" s="105"/>
+      <c r="D21" t="s" s="104">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="105">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="106">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s" s="107">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="108">
         <v>7</v>
       </c>
-      <c r="D22" s="109">
-        <v>331.86</v>
-      </c>
-      <c r="E22" s="110"/>
+      <c r="D22" t="s" s="109">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s" s="110">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="111">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s" s="112">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="113">
         <v>7</v>
       </c>
-      <c r="D23" s="114">
-        <v>331.37</v>
-      </c>
-      <c r="E23" s="115"/>
+      <c r="D23" t="s" s="114">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s" s="115">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="116">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="117">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="118">
-        <v>20</v>
-      </c>
-      <c r="D24" s="119">
-        <v>331.37</v>
-      </c>
-      <c r="E24" s="120"/>
+        <v>22</v>
+      </c>
+      <c r="D24" t="s" s="119">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s" s="120">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="121">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s" s="122">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s" s="123">
         <v>7</v>
       </c>
-      <c r="D25" s="124">
-        <v>331.37</v>
-      </c>
-      <c r="E25" s="125"/>
+      <c r="D25" t="s" s="124">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s" s="125">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="126">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s" s="127">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s" s="128">
-        <v>20</v>
-      </c>
-      <c r="D26" s="129">
-        <v>331.37</v>
-      </c>
-      <c r="E26" s="130"/>
+        <v>22</v>
+      </c>
+      <c r="D26" t="s" s="129">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s" s="130">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="131">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s" s="132">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="133">
         <v>7</v>
       </c>
-      <c r="D27" s="134">
-        <v>331.37</v>
-      </c>
-      <c r="E27" s="135"/>
+      <c r="D27" t="s" s="134">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s" s="135">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="136">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s" s="137">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s" s="138">
         <v>7</v>
       </c>
-      <c r="D28" s="139">
-        <v>331.37</v>
-      </c>
-      <c r="E28" s="140"/>
+      <c r="D28" t="s" s="139">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s" s="140">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="141">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s" s="142">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s" s="143">
         <v>7</v>
       </c>
-      <c r="D29" s="144">
-        <v>328.39</v>
-      </c>
-      <c r="E29" s="145"/>
+      <c r="D29" t="s" s="144">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s" s="145">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="146">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s" s="147">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s" s="148">
         <v>7</v>
       </c>
-      <c r="D30" s="149">
-        <v>331.37</v>
-      </c>
-      <c r="E30" s="150"/>
+      <c r="D30" t="s" s="149">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s" s="150">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A31" t="s" s="151">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s" s="152">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s" s="153">
         <v>7</v>
       </c>
-      <c r="D31">
-        <v>331.37</v>
-      </c>
-      <c r="E31"/>
+      <c r="D31" t="s" s="154">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s" s="155">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
+      <c r="A32" t="s" s="156">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s" s="157">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="158">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s" s="159">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s" s="160">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/بوفيه_مستشفى.xlsx
+++ b/بوفيه_مستشفى.xlsx
@@ -279,6 +279,126 @@
     </font>
     <font>
       <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
       <b/>
     </font>
     <font>
@@ -1084,6 +1204,36 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="D9D9D9"/>
@@ -2238,6 +2388,216 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2259,7 +2619,7 @@
     <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2277,7 +2637,7 @@
     <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2295,7 +2655,7 @@
     <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2313,7 +2673,7 @@
     <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2331,7 +2691,7 @@
     <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2349,7 +2709,7 @@
     <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2367,7 +2727,7 @@
     <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2385,7 +2745,7 @@
     <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2403,7 +2763,7 @@
     <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2421,7 +2781,7 @@
     <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2439,7 +2799,7 @@
     <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2457,7 +2817,7 @@
     <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2475,7 +2835,7 @@
     <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2493,7 +2853,7 @@
     <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2511,7 +2871,7 @@
     <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2529,7 +2889,7 @@
     <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2547,7 +2907,7 @@
     <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2565,7 +2925,7 @@
     <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2583,7 +2943,7 @@
     <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2601,7 +2961,7 @@
     <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2619,7 +2979,7 @@
     <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2637,7 +2997,7 @@
     <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2655,7 +3015,7 @@
     <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2673,7 +3033,7 @@
     <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2691,7 +3051,7 @@
     <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -2712,16 +3072,106 @@
     <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="158" fillId="159" borderId="158" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="159" fillId="160" borderId="159" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="160" fillId="161" borderId="160" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="158" fillId="159" borderId="158" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="159" fillId="160" borderId="159" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="160" fillId="161" borderId="160" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="164" fillId="165" borderId="164" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="165" fillId="166" borderId="165" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="166" fillId="167" borderId="166" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="170" fillId="171" borderId="170" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="171" fillId="172" borderId="171" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="172" fillId="173" borderId="172" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="176" fillId="177" borderId="176" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="177" fillId="178" borderId="177" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="178" fillId="179" borderId="178" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="182" fillId="183" borderId="182" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="183" fillId="184" borderId="183" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="184" fillId="185" borderId="184" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="188" fillId="189" borderId="188" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="189" fillId="190" borderId="189" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="190" fillId="191" borderId="190" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3010,555 +3460,645 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="E1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="F1" t="s" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="6">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="C2" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="D2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="E2" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="F2" t="s" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="11">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="C3" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="D3" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="E3" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="F3" t="s" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="16">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="17">
+      <c r="C4" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="18">
+      <c r="D4" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="E4" t="s" s="22">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="F4" t="s" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="21">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="22">
+      <c r="C5" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="D5" t="s" s="27">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="24">
+      <c r="E5" t="s" s="28">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="25">
+      <c r="F5" t="s" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="26">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="27">
+      <c r="C6" t="s" s="32">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="D6" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="29">
+      <c r="E6" t="s" s="34">
         <v>8</v>
       </c>
-      <c r="E6" t="s" s="30">
+      <c r="F6" t="s" s="35">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="31">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="32">
+      <c r="C7" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="33">
+      <c r="D7" t="s" s="39">
         <v>7</v>
       </c>
-      <c r="D7" t="s" s="34">
+      <c r="E7" t="s" s="40">
         <v>8</v>
       </c>
-      <c r="E7" t="s" s="35">
+      <c r="F7" t="s" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="36">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="37">
+      <c r="C8" t="s" s="44">
         <v>21</v>
       </c>
-      <c r="C8" t="s" s="38">
+      <c r="D8" t="s" s="45">
         <v>22</v>
       </c>
-      <c r="D8" t="s" s="39">
+      <c r="E8" t="s" s="46">
         <v>23</v>
       </c>
-      <c r="E8" t="s" s="40">
+      <c r="F8" t="s" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="41">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="49">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="42">
+      <c r="C9" t="s" s="50">
         <v>25</v>
       </c>
-      <c r="C9" t="s" s="43">
+      <c r="D9" t="s" s="51">
         <v>7</v>
       </c>
-      <c r="D9" t="s" s="44">
+      <c r="E9" t="s" s="52">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="45">
+      <c r="F9" t="s" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="46">
+      <c r="A10" s="54">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="55">
         <v>26</v>
       </c>
-      <c r="B10" t="s" s="47">
+      <c r="C10" t="s" s="56">
         <v>27</v>
       </c>
-      <c r="C10" t="s" s="48">
+      <c r="D10" t="s" s="57">
         <v>7</v>
       </c>
-      <c r="D10" t="s" s="49">
+      <c r="E10" t="s" s="58">
         <v>28</v>
       </c>
-      <c r="E10" t="s" s="50">
+      <c r="F10" t="s" s="59">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="51">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="61">
         <v>29</v>
       </c>
-      <c r="B11" t="s" s="52">
+      <c r="C11" t="s" s="62">
         <v>30</v>
       </c>
-      <c r="C11" t="s" s="53">
+      <c r="D11" t="s" s="63">
         <v>7</v>
       </c>
-      <c r="D11" t="s" s="54">
+      <c r="E11" t="s" s="64">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="55">
+      <c r="F11" t="s" s="65">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="56">
+      <c r="A12" s="66">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="67">
         <v>31</v>
       </c>
-      <c r="B12" t="s" s="57">
+      <c r="C12" t="s" s="68">
         <v>32</v>
       </c>
-      <c r="C12" t="s" s="58">
+      <c r="D12" t="s" s="69">
         <v>7</v>
       </c>
-      <c r="D12" t="s" s="59">
+      <c r="E12" t="s" s="70">
         <v>8</v>
       </c>
-      <c r="E12" t="s" s="60">
+      <c r="F12" t="s" s="71">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="61">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="73">
         <v>33</v>
       </c>
-      <c r="B13" t="s" s="62">
+      <c r="C13" t="s" s="74">
         <v>34</v>
       </c>
-      <c r="C13" t="s" s="63">
+      <c r="D13" t="s" s="75">
         <v>7</v>
       </c>
-      <c r="D13" t="s" s="64">
+      <c r="E13" t="s" s="76">
         <v>8</v>
       </c>
-      <c r="E13" t="s" s="65">
+      <c r="F13" t="s" s="77">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="66">
+      <c r="A14" s="78">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="79">
         <v>35</v>
       </c>
-      <c r="B14" t="s" s="67">
+      <c r="C14" t="s" s="80">
         <v>36</v>
       </c>
-      <c r="C14" t="s" s="68">
+      <c r="D14" t="s" s="81">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="69">
+      <c r="E14" t="s" s="82">
         <v>8</v>
       </c>
-      <c r="E14" t="s" s="70">
+      <c r="F14" t="s" s="83">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="71">
+      <c r="A15" s="84">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="85">
         <v>37</v>
       </c>
-      <c r="B15" t="s" s="72">
+      <c r="C15" t="s" s="86">
         <v>38</v>
       </c>
-      <c r="C15" t="s" s="73">
+      <c r="D15" t="s" s="87">
         <v>7</v>
       </c>
-      <c r="D15" t="s" s="74">
+      <c r="E15" t="s" s="88">
         <v>8</v>
       </c>
-      <c r="E15" t="s" s="75">
+      <c r="F15" t="s" s="89">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="76">
+      <c r="A16" s="90">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="91">
         <v>39</v>
       </c>
-      <c r="B16" t="s" s="77">
+      <c r="C16" t="s" s="92">
         <v>40</v>
       </c>
-      <c r="C16" t="s" s="78">
+      <c r="D16" t="s" s="93">
         <v>7</v>
       </c>
-      <c r="D16" t="s" s="79">
+      <c r="E16" t="s" s="94">
         <v>8</v>
       </c>
-      <c r="E16" t="s" s="80">
+      <c r="F16" t="s" s="95">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="81">
+      <c r="A17" s="96">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="97">
         <v>41</v>
       </c>
-      <c r="B17" t="s" s="82">
+      <c r="C17" t="s" s="98">
         <v>42</v>
       </c>
-      <c r="C17" t="s" s="83">
+      <c r="D17" t="s" s="99">
         <v>7</v>
       </c>
-      <c r="D17" t="s" s="84">
+      <c r="E17" t="s" s="100">
         <v>8</v>
       </c>
-      <c r="E17" t="s" s="85">
+      <c r="F17" t="s" s="101">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="86">
+      <c r="A18" s="102">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="103">
         <v>43</v>
       </c>
-      <c r="B18" t="s" s="87">
+      <c r="C18" t="s" s="104">
         <v>44</v>
       </c>
-      <c r="C18" t="s" s="88">
+      <c r="D18" t="s" s="105">
         <v>7</v>
       </c>
-      <c r="D18" t="s" s="89">
+      <c r="E18" t="s" s="106">
         <v>8</v>
       </c>
-      <c r="E18" t="s" s="90">
+      <c r="F18" t="s" s="107">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="91">
+      <c r="A19" s="108">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="109">
         <v>45</v>
       </c>
-      <c r="B19" t="s" s="92">
+      <c r="C19" t="s" s="110">
         <v>46</v>
       </c>
-      <c r="C19" t="s" s="93">
+      <c r="D19" t="s" s="111">
         <v>22</v>
       </c>
-      <c r="D19" t="s" s="94">
+      <c r="E19" t="s" s="112">
         <v>8</v>
       </c>
-      <c r="E19" t="s" s="95">
+      <c r="F19" t="s" s="113">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="96">
+      <c r="A20" s="114">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="115">
         <v>47</v>
       </c>
-      <c r="B20" t="s" s="97">
+      <c r="C20" t="s" s="116">
         <v>48</v>
       </c>
-      <c r="C20" t="s" s="98">
+      <c r="D20" t="s" s="117">
         <v>7</v>
       </c>
-      <c r="D20" t="s" s="99">
+      <c r="E20" t="s" s="118">
         <v>8</v>
       </c>
-      <c r="E20" t="s" s="100">
+      <c r="F20" t="s" s="119">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="101">
+      <c r="A21" s="120">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="121">
         <v>49</v>
       </c>
-      <c r="B21" t="s" s="102">
+      <c r="C21" t="s" s="122">
         <v>50</v>
       </c>
-      <c r="C21" t="s" s="103">
+      <c r="D21" t="s" s="123">
         <v>7</v>
       </c>
-      <c r="D21" t="s" s="104">
+      <c r="E21" t="s" s="124">
         <v>8</v>
       </c>
-      <c r="E21" t="s" s="105">
+      <c r="F21" t="s" s="125">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="106">
+      <c r="A22" s="126">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="127">
         <v>51</v>
       </c>
-      <c r="B22" t="s" s="107">
+      <c r="C22" t="s" s="128">
         <v>52</v>
       </c>
-      <c r="C22" t="s" s="108">
+      <c r="D22" t="s" s="129">
         <v>7</v>
       </c>
-      <c r="D22" t="s" s="109">
+      <c r="E22" t="s" s="130">
         <v>53</v>
       </c>
-      <c r="E22" t="s" s="110">
+      <c r="F22" t="s" s="131">
         <v>9</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="111">
+      <c r="A23" s="132">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="133">
         <v>54</v>
       </c>
-      <c r="B23" t="s" s="112">
+      <c r="C23" t="s" s="134">
         <v>55</v>
       </c>
-      <c r="C23" t="s" s="113">
+      <c r="D23" t="s" s="135">
         <v>7</v>
       </c>
-      <c r="D23" t="s" s="114">
+      <c r="E23" t="s" s="136">
         <v>8</v>
       </c>
-      <c r="E23" t="s" s="115">
+      <c r="F23" t="s" s="137">
         <v>9</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="116">
+      <c r="A24" s="138">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="139">
         <v>56</v>
       </c>
-      <c r="B24" t="s" s="117">
+      <c r="C24" t="s" s="140">
         <v>57</v>
       </c>
-      <c r="C24" t="s" s="118">
+      <c r="D24" t="s" s="141">
         <v>22</v>
       </c>
-      <c r="D24" t="s" s="119">
+      <c r="E24" t="s" s="142">
         <v>8</v>
       </c>
-      <c r="E24" t="s" s="120">
+      <c r="F24" t="s" s="143">
         <v>9</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="121">
+      <c r="A25" s="144">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="145">
         <v>58</v>
       </c>
-      <c r="B25" t="s" s="122">
+      <c r="C25" t="s" s="146">
         <v>59</v>
       </c>
-      <c r="C25" t="s" s="123">
+      <c r="D25" t="s" s="147">
         <v>7</v>
       </c>
-      <c r="D25" t="s" s="124">
+      <c r="E25" t="s" s="148">
         <v>8</v>
       </c>
-      <c r="E25" t="s" s="125">
+      <c r="F25" t="s" s="149">
         <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="126">
+      <c r="A26" s="150">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="151">
         <v>60</v>
       </c>
-      <c r="B26" t="s" s="127">
+      <c r="C26" t="s" s="152">
         <v>61</v>
       </c>
-      <c r="C26" t="s" s="128">
+      <c r="D26" t="s" s="153">
         <v>22</v>
       </c>
-      <c r="D26" t="s" s="129">
+      <c r="E26" t="s" s="154">
         <v>8</v>
       </c>
-      <c r="E26" t="s" s="130">
+      <c r="F26" t="s" s="155">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="131">
+      <c r="A27" s="156">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="157">
         <v>62</v>
       </c>
-      <c r="B27" t="s" s="132">
+      <c r="C27" t="s" s="158">
         <v>63</v>
       </c>
-      <c r="C27" t="s" s="133">
+      <c r="D27" t="s" s="159">
         <v>7</v>
       </c>
-      <c r="D27" t="s" s="134">
+      <c r="E27" t="s" s="160">
         <v>8</v>
       </c>
-      <c r="E27" t="s" s="135">
+      <c r="F27" t="s" s="161">
         <v>9</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="136">
+      <c r="A28" s="162">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="163">
         <v>64</v>
       </c>
-      <c r="B28" t="s" s="137">
+      <c r="C28" t="s" s="164">
         <v>65</v>
       </c>
-      <c r="C28" t="s" s="138">
+      <c r="D28" t="s" s="165">
         <v>7</v>
       </c>
-      <c r="D28" t="s" s="139">
+      <c r="E28" t="s" s="166">
         <v>8</v>
       </c>
-      <c r="E28" t="s" s="140">
+      <c r="F28" t="s" s="167">
         <v>9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="141">
+      <c r="A29" s="168">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="169">
         <v>66</v>
       </c>
-      <c r="B29" t="s" s="142">
+      <c r="C29" t="s" s="170">
         <v>67</v>
       </c>
-      <c r="C29" t="s" s="143">
+      <c r="D29" t="s" s="171">
         <v>7</v>
       </c>
-      <c r="D29" t="s" s="144">
+      <c r="E29" t="s" s="172">
         <v>23</v>
       </c>
-      <c r="E29" t="s" s="145">
+      <c r="F29" t="s" s="173">
         <v>9</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="146">
+      <c r="A30" s="174">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="175">
         <v>68</v>
       </c>
-      <c r="B30" t="s" s="147">
+      <c r="C30" t="s" s="176">
         <v>69</v>
       </c>
-      <c r="C30" t="s" s="148">
+      <c r="D30" t="s" s="177">
         <v>7</v>
       </c>
-      <c r="D30" t="s" s="149">
+      <c r="E30" t="s" s="178">
         <v>8</v>
       </c>
-      <c r="E30" t="s" s="150">
+      <c r="F30" t="s" s="179">
         <v>9</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="151">
+      <c r="A31" s="180">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="181">
         <v>70</v>
       </c>
-      <c r="B31" t="s" s="152">
+      <c r="C31" t="s" s="182">
         <v>71</v>
       </c>
-      <c r="C31" t="s" s="153">
+      <c r="D31" t="s" s="183">
         <v>7</v>
       </c>
-      <c r="D31" t="s" s="154">
+      <c r="E31" t="s" s="184">
         <v>8</v>
       </c>
-      <c r="E31" t="s" s="155">
+      <c r="F31" t="s" s="185">
         <v>9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="156">
+      <c r="B32" t="s" s="186">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="187">
         <v>72</v>
       </c>
-      <c r="B32" t="s" s="157">
+      <c r="D32" t="s" s="188">
         <v>9</v>
       </c>
-      <c r="C32" t="s" s="158">
+      <c r="E32" t="s" s="189">
         <v>9</v>
       </c>
-      <c r="D32" t="s" s="159">
+      <c r="F32" t="s" s="190">
         <v>73</v>
-      </c>
-      <c r="E32" t="s" s="160">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
